--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T16:23:32+00:00</t>
+    <t>2022-02-16T17:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T17:04:16+00:00</t>
+    <t>2022-02-16T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:02:33+00:00</t>
+    <t>2022-02-16T18:21:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:42:42+00:00</t>
+    <t>2022-02-17T14:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$147</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -900,7 +897,7 @@
     <t>MedicinalProductDefinition.version</t>
   </si>
   <si>
-    <t>A business identifier relating to a specific version of the product</t>
+    <t>Business version of this product</t>
   </si>
   <si>
     <t>A business identifier relating to a specific version of the product, this is commonly used to support revisions to an existing product.</t>
@@ -916,9 +913,6 @@
   </si>
   <si>
     <t>The status within the lifecycle of this product record. A high-level status, this is not intended to duplicate details carried elsewhere such as legal status, or authorization status.</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/publication-status</t>
@@ -931,7 +925,7 @@
 </t>
   </si>
   <si>
-    <t>The date at which the given status became applicable</t>
+    <t>The date at which this status became applicable.</t>
   </si>
   <si>
     <t>The date at which the given status became applicable.</t>
@@ -944,7 +938,7 @@
 </t>
   </si>
   <si>
-    <t>General description of this product</t>
+    <t>General description of the product referred by the ePI</t>
   </si>
   <si>
     <t>General description of this product.</t>
@@ -953,7 +947,7 @@
     <t>MedicinalProductDefinition.combinedPharmaceuticalDoseForm</t>
   </si>
   <si>
-    <t>The dose form for a single part product, or combined form of a multiple part product</t>
+    <t>The dose form for a single part product or combined form of a multiple part product</t>
   </si>
   <si>
     <t>The dose form for a single part product, or combined form of a multiple part product. This is one concept that describes all the components. It does not represent the form with components physically mixed, if that might be necessary, for which see (AdministrableProductDefinition.administrableDoseForm).</t>
@@ -971,7 +965,7 @@
     <t>MedicinalProductDefinition.route</t>
   </si>
   <si>
-    <t>The path by which the product is taken into or makes contact with the body</t>
+    <t>Route of administration</t>
   </si>
   <si>
     <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. See also AdministrableProductDefinition resource. MedicinalProductDefinition.route is the same concept as AdministrableProductDefinition.routeOfAdministration.code, and they cannot be used together.</t>
@@ -1052,7 +1046,7 @@
     <t>MedicinalProductDefinition.additionalMonitoringIndicator</t>
   </si>
   <si>
-    <t>Whether the Medicinal Product is subject to additional monitoring for regulatory reasons</t>
+    <t>Additional monitoring this Medicinal Product is subject to (for regulatory reasons)</t>
   </si>
   <si>
     <t>Whether the Medicinal Product is subject to additional monitoring for regulatory reasons, such as heightened reporting requirements.</t>
@@ -1088,7 +1082,7 @@
     <t>MedicinalProductDefinition.pediatricUseIndicator</t>
   </si>
   <si>
-    <t>If authorised for use in children</t>
+    <t>Authorised pediatric use</t>
   </si>
   <si>
     <t>If authorised for use in children, or infants, neonates etc.</t>
@@ -1106,7 +1100,7 @@
     <t>MedicinalProductDefinition.classification</t>
   </si>
   <si>
-    <t>Allows the product to be classified by various systems</t>
+    <t>Classifications used for this product</t>
   </si>
   <si>
     <t>Allows the product to be classified by various systems, commonly WHO ATC.</t>
@@ -1128,7 +1122,7 @@
 </t>
   </si>
   <si>
-    <t>Marketing status of the medicinal product, in contrast to marketing authorization</t>
+    <t>Marketing status of the medicinal product in contrast to marketing authorization</t>
   </si>
   <si>
     <t>Marketing status of the medicinal product, in contrast to marketing authorization. This refers to the product being actually 'on the market' as opposed to being allowed to be on the market (which is an authorization).</t>
@@ -1140,7 +1134,7 @@
     <t>MedicinalProductDefinition.packagedMedicinalProduct</t>
   </si>
   <si>
-    <t>Package type for the product</t>
+    <t>Package type for this product</t>
   </si>
   <si>
     <t>Package type for the product. See also the PackagedProductDefinition resource.</t>
@@ -1327,7 +1321,7 @@
     <t>MedicinalProductDefinition.name.productName</t>
   </si>
   <si>
-    <t>The full product name</t>
+    <t>The full name of this product</t>
   </si>
   <si>
     <t>The full product name.</t>
@@ -1492,7 +1486,7 @@
     <t>MedicinalProductDefinition.name.countryLanguage.country</t>
   </si>
   <si>
-    <t>Country code for where this name applies</t>
+    <t>Country for where this name applies (code)</t>
   </si>
   <si>
     <t>Country code for where this name applies.</t>
@@ -1525,7 +1519,7 @@
     <t>MedicinalProductDefinition.name.countryLanguage.language</t>
   </si>
   <si>
-    <t>Language code for this name</t>
+    <t>Language for this name (code)</t>
   </si>
   <si>
     <t>Language code for this name.</t>
@@ -1837,21 +1831,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2183,7 +2162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -2289,7 +2268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -2397,7 +2376,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>88</v>
       </c>
@@ -2503,7 +2482,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -2611,7 +2590,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -2719,7 +2698,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -2827,7 +2806,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>117</v>
       </c>
@@ -2935,7 +2914,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>125</v>
       </c>
@@ -3043,7 +3022,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>133</v>
       </c>
@@ -3153,7 +3132,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>138</v>
       </c>
@@ -3275,7 +3254,7 @@
         <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>71</v>
@@ -3365,7 +3344,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>149</v>
       </c>
@@ -3471,7 +3450,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>155</v>
       </c>
@@ -3579,7 +3558,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>160</v>
       </c>
@@ -3687,7 +3666,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>170</v>
       </c>
@@ -3795,7 +3774,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>179</v>
       </c>
@@ -3905,7 +3884,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>188</v>
       </c>
@@ -4013,7 +3992,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>195</v>
       </c>
@@ -4119,7 +4098,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>201</v>
       </c>
@@ -4243,7 +4222,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>71</v>
@@ -4333,7 +4312,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>215</v>
       </c>
@@ -4439,7 +4418,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>216</v>
       </c>
@@ -4547,7 +4526,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>217</v>
       </c>
@@ -4673,7 +4652,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>71</v>
@@ -4767,7 +4746,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>226</v>
       </c>
@@ -4873,7 +4852,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>227</v>
       </c>
@@ -4981,7 +4960,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>228</v>
       </c>
@@ -5091,7 +5070,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>236</v>
       </c>
@@ -5199,7 +5178,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>242</v>
       </c>
@@ -5307,7 +5286,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>248</v>
       </c>
@@ -5415,7 +5394,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>254</v>
       </c>
@@ -5525,7 +5504,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>262</v>
       </c>
@@ -5651,7 +5630,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>71</v>
@@ -5741,7 +5720,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>274</v>
       </c>
@@ -5847,7 +5826,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>275</v>
       </c>
@@ -5955,7 +5934,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>276</v>
       </c>
@@ -6081,7 +6060,7 @@
         <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>71</v>
@@ -6175,7 +6154,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>277</v>
       </c>
@@ -6281,7 +6260,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>278</v>
       </c>
@@ -6389,7 +6368,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>279</v>
       </c>
@@ -6499,7 +6478,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>280</v>
       </c>
@@ -6607,7 +6586,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>281</v>
       </c>
@@ -6715,7 +6694,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>282</v>
       </c>
@@ -6823,7 +6802,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>283</v>
       </c>
@@ -6933,7 +6912,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>284</v>
       </c>
@@ -7043,7 +7022,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>285</v>
       </c>
@@ -7165,7 +7144,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7207,13 +7186,11 @@
         <v>71</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="Y48" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>71</v>
@@ -7255,9 +7232,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7280,13 +7257,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7337,7 +7314,7 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -7361,9 +7338,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7386,13 +7363,13 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7443,7 +7420,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -7467,9 +7444,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7495,10 +7472,10 @@
         <v>171</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7528,11 +7505,11 @@
         <v>211</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>71</v>
       </c>
@@ -7549,7 +7526,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -7564,18 +7541,18 @@
         <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7601,10 +7578,10 @@
         <v>171</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7634,11 +7611,11 @@
         <v>211</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>71</v>
       </c>
@@ -7655,7 +7632,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -7670,18 +7647,18 @@
         <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7704,13 +7681,13 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7761,7 +7738,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -7776,7 +7753,7 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>71</v>
@@ -7787,7 +7764,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7801,7 +7778,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>71</v>
@@ -7813,10 +7790,10 @@
         <v>171</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7846,11 +7823,11 @@
         <v>211</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>71</v>
       </c>
@@ -7867,7 +7844,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7882,18 +7859,18 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7997,9 +7974,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8105,9 +8082,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8215,7 +8192,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>146</v>
@@ -8231,7 +8208,7 @@
         <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>71</v>
@@ -8325,9 +8302,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8431,9 +8408,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8539,9 +8516,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8649,9 +8626,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8757,9 +8734,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8865,9 +8842,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8973,9 +8950,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9083,9 +9060,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9193,9 +9170,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9221,10 +9198,10 @@
         <v>171</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9254,11 +9231,11 @@
         <v>211</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>71</v>
       </c>
@@ -9275,7 +9252,7 @@
         <v>71</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>72</v>
@@ -9290,18 +9267,18 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9327,10 +9304,10 @@
         <v>171</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9360,11 +9337,11 @@
         <v>211</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>71</v>
       </c>
@@ -9381,7 +9358,7 @@
         <v>71</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>72</v>
@@ -9396,18 +9373,18 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9433,10 +9410,10 @@
         <v>171</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9466,11 +9443,11 @@
         <v>211</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>71</v>
       </c>
@@ -9487,7 +9464,7 @@
         <v>71</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>72</v>
@@ -9502,18 +9479,18 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9539,10 +9516,10 @@
         <v>171</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9572,11 +9549,11 @@
         <v>211</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>71</v>
       </c>
@@ -9593,7 +9570,7 @@
         <v>71</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>72</v>
@@ -9608,18 +9585,18 @@
         <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9642,13 +9619,13 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9699,7 +9676,7 @@
         <v>71</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>72</v>
@@ -9714,18 +9691,18 @@
         <v>93</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9751,10 +9728,10 @@
         <v>171</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9784,11 +9761,11 @@
         <v>211</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>71</v>
       </c>
@@ -9805,7 +9782,7 @@
         <v>71</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>72</v>
@@ -9820,18 +9797,18 @@
         <v>93</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9857,10 +9834,10 @@
         <v>171</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9890,11 +9867,11 @@
         <v>211</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>71</v>
       </c>
@@ -9911,7 +9888,7 @@
         <v>71</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>72</v>
@@ -9926,18 +9903,18 @@
         <v>93</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9960,13 +9937,13 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9996,11 +9973,11 @@
         <v>211</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Z74" t="s" s="2">
         <v>71</v>
       </c>
@@ -10017,7 +9994,7 @@
         <v>71</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>72</v>
@@ -10041,9 +10018,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10066,13 +10043,13 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10123,7 +10100,7 @@
         <v>71</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>72</v>
@@ -10138,18 +10115,18 @@
         <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10172,13 +10149,13 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10229,7 +10206,7 @@
         <v>71</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>72</v>
@@ -10244,18 +10221,18 @@
         <v>93</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10278,13 +10255,13 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10335,7 +10312,7 @@
         <v>71</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>72</v>
@@ -10359,9 +10336,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10465,9 +10442,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10573,13 +10550,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10601,10 +10578,10 @@
         <v>127</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>130</v>
@@ -10659,7 +10636,7 @@
         <v>71</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>72</v>
@@ -10683,9 +10660,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10711,10 +10688,10 @@
         <v>171</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10744,11 +10721,11 @@
         <v>211</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>71</v>
       </c>
@@ -10765,7 +10742,7 @@
         <v>71</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>72</v>
@@ -10789,9 +10766,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10814,13 +10791,13 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10871,7 +10848,7 @@
         <v>71</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>81</v>
@@ -10895,9 +10872,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10920,13 +10897,13 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10977,7 +10954,7 @@
         <v>71</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>72</v>
@@ -10992,18 +10969,18 @@
         <v>93</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11029,10 +11006,10 @@
         <v>218</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11062,11 +11039,11 @@
         <v>211</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>71</v>
       </c>
@@ -11083,7 +11060,7 @@
         <v>71</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>72</v>
@@ -11107,9 +11084,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11132,13 +11109,13 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11189,7 +11166,7 @@
         <v>71</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>81</v>
@@ -11204,18 +11181,18 @@
         <v>93</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11319,9 +11296,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11427,13 +11404,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11455,10 +11432,10 @@
         <v>127</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>130</v>
@@ -11513,7 +11490,7 @@
         <v>71</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>72</v>
@@ -11539,7 +11516,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11553,7 +11530,7 @@
         <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>71</v>
@@ -11565,10 +11542,10 @@
         <v>150</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11619,7 +11596,7 @@
         <v>71</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>81</v>
@@ -11634,7 +11611,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>71</v>
@@ -11645,7 +11622,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11659,7 +11636,7 @@
         <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>71</v>
@@ -11671,10 +11648,10 @@
         <v>171</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11704,11 +11681,11 @@
         <v>211</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Y90" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="Y90" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="Z90" t="s" s="2">
         <v>71</v>
       </c>
@@ -11725,7 +11702,7 @@
         <v>71</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>72</v>
@@ -11749,9 +11726,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11855,9 +11832,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11963,9 +11940,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12073,7 +12050,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>146</v>
@@ -12089,7 +12066,7 @@
         <v>73</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>71</v>
@@ -12183,9 +12160,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12289,9 +12266,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12397,9 +12374,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12507,9 +12484,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12615,9 +12592,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12723,9 +12700,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12831,9 +12808,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12941,9 +12918,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13051,9 +13028,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13076,13 +13053,13 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13133,7 +13110,7 @@
         <v>71</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>72</v>
@@ -13148,18 +13125,18 @@
         <v>93</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13263,9 +13240,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13371,13 +13348,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13399,10 +13376,10 @@
         <v>127</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>130</v>
@@ -13457,7 +13434,7 @@
         <v>71</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>72</v>
@@ -13481,9 +13458,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13509,10 +13486,10 @@
         <v>150</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13563,7 +13540,7 @@
         <v>71</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>81</v>
@@ -13578,18 +13555,18 @@
         <v>93</v>
       </c>
       <c r="AJ107" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13615,10 +13592,10 @@
         <v>171</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13648,11 +13625,11 @@
         <v>211</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Y108" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="Z108" t="s" s="2">
         <v>71</v>
       </c>
@@ -13669,7 +13646,7 @@
         <v>71</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>81</v>
@@ -13684,18 +13661,18 @@
         <v>93</v>
       </c>
       <c r="AJ108" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13799,9 +13776,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13907,9 +13884,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14017,7 +13994,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>146</v>
@@ -14033,7 +14010,7 @@
         <v>73</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>71</v>
@@ -14127,9 +14104,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14233,9 +14210,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14341,9 +14318,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14451,9 +14428,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14559,9 +14536,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14667,9 +14644,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14775,9 +14752,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14885,9 +14862,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14995,9 +14972,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15020,13 +14997,13 @@
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15077,7 +15054,7 @@
         <v>71</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>72</v>
@@ -15092,18 +15069,18 @@
         <v>93</v>
       </c>
       <c r="AJ121" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15207,9 +15184,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15315,13 +15292,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15343,10 +15320,10 @@
         <v>127</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>130</v>
@@ -15401,7 +15378,7 @@
         <v>71</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>72</v>
@@ -15427,7 +15404,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15441,7 +15418,7 @@
         <v>81</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>71</v>
@@ -15453,10 +15430,10 @@
         <v>171</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15486,11 +15463,11 @@
         <v>211</v>
       </c>
       <c r="X125" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Y125" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="Y125" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="Z125" t="s" s="2">
         <v>71</v>
       </c>
@@ -15507,7 +15484,7 @@
         <v>71</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>81</v>
@@ -15522,18 +15499,18 @@
         <v>93</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15559,10 +15536,10 @@
         <v>171</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15592,10 +15569,10 @@
         <v>211</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>71</v>
@@ -15613,7 +15590,7 @@
         <v>71</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>72</v>
@@ -15628,7 +15605,7 @@
         <v>93</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>71</v>
@@ -15639,7 +15616,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15653,7 +15630,7 @@
         <v>81</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>71</v>
@@ -15665,10 +15642,10 @@
         <v>171</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15719,7 +15696,7 @@
         <v>71</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>81</v>
@@ -15734,18 +15711,18 @@
         <v>93</v>
       </c>
       <c r="AJ127" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15768,13 +15745,13 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -15825,7 +15802,7 @@
         <v>71</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>72</v>
@@ -15840,18 +15817,18 @@
         <v>93</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15955,9 +15932,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16063,13 +16040,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16091,10 +16068,10 @@
         <v>127</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>130</v>
@@ -16149,7 +16126,7 @@
         <v>71</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>72</v>
@@ -16173,9 +16150,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16198,13 +16175,13 @@
         <v>82</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -16255,7 +16232,7 @@
         <v>71</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>81</v>
@@ -16270,7 +16247,7 @@
         <v>93</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>71</v>
@@ -16279,9 +16256,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16307,10 +16284,10 @@
         <v>171</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16340,10 +16317,10 @@
         <v>211</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>71</v>
@@ -16361,7 +16338,7 @@
         <v>71</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>72</v>
@@ -16376,7 +16353,7 @@
         <v>93</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>71</v>
@@ -16385,9 +16362,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16410,13 +16387,13 @@
         <v>82</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16467,7 +16444,7 @@
         <v>71</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>72</v>
@@ -16482,18 +16459,18 @@
         <v>93</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16597,9 +16574,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16705,13 +16682,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -16733,10 +16710,10 @@
         <v>127</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M137" t="s" s="2">
         <v>130</v>
@@ -16791,7 +16768,7 @@
         <v>71</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>72</v>
@@ -16815,9 +16792,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16840,13 +16817,13 @@
         <v>82</v>
       </c>
       <c r="J138" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K138" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="K138" t="s" s="2">
+      <c r="L138" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -16897,7 +16874,7 @@
         <v>71</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>72</v>
@@ -16912,18 +16889,18 @@
         <v>93</v>
       </c>
       <c r="AJ138" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16949,10 +16926,10 @@
         <v>196</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17003,7 +16980,7 @@
         <v>71</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>72</v>
@@ -17018,18 +16995,18 @@
         <v>93</v>
       </c>
       <c r="AJ139" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17055,10 +17032,10 @@
         <v>202</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -17109,7 +17086,7 @@
         <v>71</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>72</v>
@@ -17124,18 +17101,18 @@
         <v>93</v>
       </c>
       <c r="AJ140" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141" hidden="true">
-      <c r="A141" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17161,10 +17138,10 @@
         <v>171</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -17194,11 +17171,11 @@
         <v>211</v>
       </c>
       <c r="X141" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Y141" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Y141" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="Z141" t="s" s="2">
         <v>71</v>
       </c>
@@ -17215,7 +17192,7 @@
         <v>71</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>72</v>
@@ -17230,18 +17207,18 @@
         <v>93</v>
       </c>
       <c r="AJ141" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17264,13 +17241,13 @@
         <v>82</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17321,7 +17298,7 @@
         <v>71</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>72</v>
@@ -17336,18 +17313,18 @@
         <v>93</v>
       </c>
       <c r="AJ142" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="143" hidden="true">
-      <c r="A143" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17451,9 +17428,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17559,13 +17536,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17587,10 +17564,10 @@
         <v>127</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>130</v>
@@ -17645,7 +17622,7 @@
         <v>71</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>72</v>
@@ -17669,9 +17646,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17697,10 +17674,10 @@
         <v>171</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17730,11 +17707,11 @@
         <v>211</v>
       </c>
       <c r="X146" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y146" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y146" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="Z146" t="s" s="2">
         <v>71</v>
       </c>
@@ -17751,7 +17728,7 @@
         <v>71</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>81</v>
@@ -17766,18 +17743,18 @@
         <v>93</v>
       </c>
       <c r="AJ146" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="147" hidden="true">
-      <c r="A147" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17800,13 +17777,13 @@
         <v>82</v>
       </c>
       <c r="J147" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="K147" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="K147" t="s" s="2">
+      <c r="L147" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17857,7 +17834,7 @@
         <v>71</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>72</v>
@@ -17872,7 +17849,7 @@
         <v>93</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>71</v>
@@ -17882,24 +17859,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL147">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI146">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,10 +237,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Detailed definition of a medicinal product</t>
-  </si>
-  <si>
-    <t>A medicinal product, being a substance or combination of substances that is intended to treat, prevent or diagnose a disease, or to restore, correct or modify physiological functions by exerting a pharmacological, immunological or metabolic action. This resource is intended to define and detail such products and their properties, for uses other than direct patient care (e.g. regulatory use, or drug catalogs).</t>
+    <t>Detailed definition of a medicinal product, typically for uses other than direct patient care (e.g. regulatory use, drug catalogs)</t>
+  </si>
+  <si>
+    <t>Detailed definition of a medicinal product, typically for uses other than direct patient care (e.g. regulatory use, drug catalogs).</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -457,7 +457,7 @@
     <t>Business identifier for this product. Could be an MPID</t>
   </si>
   <si>
-    <t>Business identifier for this product. Could be an MPID. When in development or being regulated, products are typically referenced by official identifiers, assigned by a manufacturer or regulator, and unique to a product (which, when compared to a product instance being prescribed, is actually a product type). See also MedicinalProductDefinition.code.</t>
+    <t>Business identifier for this product. Could be an MPID.</t>
   </si>
   <si>
     <t>Medicinal Product.MPID, Investigational Medicinal Product.IMPID</t>
@@ -519,7 +519,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -739,7 +739,7 @@
     <t>MedicinalProductDefinition.status</t>
   </si>
   <si>
-    <t>The status within the lifecycle of this product record</t>
+    <t>The status within the lifecycle of this product record. A high-level status, this is not intended to duplicate details carried elsewhere such as legal status, or authorization status</t>
   </si>
   <si>
     <t>The status within the lifecycle of this product record. A high-level status, this is not intended to duplicate details carried elsewhere such as legal status, or authorization status.</t>
@@ -780,7 +780,7 @@
     <t>The dose form for a single part product or combined form of a multiple part product</t>
   </si>
   <si>
-    <t>The dose form for a single part product, or combined form of a multiple part product. This is one concept that describes all the components. It does not represent the form with components physically mixed, if that might be necessary, for which see (AdministrableProductDefinition.administrableDoseForm).</t>
+    <t>The dose form for a single part product, or combined form of a multiple part product.</t>
   </si>
   <si>
     <t>example</t>
@@ -801,7 +801,7 @@
     <t>Route of administration</t>
   </si>
   <si>
-    <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. See also AdministrableProductDefinition resource. MedicinalProductDefinition.route is the same concept as AdministrableProductDefinition.routeOfAdministration.code, and they cannot be used together.</t>
+    <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. See also AdministrableProductDefinition resource.</t>
   </si>
   <si>
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
@@ -870,13 +870,7 @@
     <t>Additional monitoring this Medicinal Product is subject to (for regulatory reasons)</t>
   </si>
   <si>
-    <t>Whether the Medicinal Product is subject to additional monitoring for regulatory reasons, such as heightened reporting requirements.</t>
-  </si>
-  <si>
-    <t>Extra measures defined for a Medicinal Product, such as heightened reporting requirements (e.g. Black Triangle Monitoring).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-additional-monitoring</t>
+    <t>Whether the Medicinal Product is subject to additional monitoring for regulatory reasons.</t>
   </si>
   <si>
     <t>Medicinal Product.Additional Monitoring Indicator</t>
@@ -888,13 +882,7 @@
     <t>Whether the Medicinal Product is subject to special measures for regulatory reasons</t>
   </si>
   <si>
-    <t>Whether the Medicinal Product is subject to special measures for regulatory reasons, such as a requirement to conduct post-authorisation studies.</t>
-  </si>
-  <si>
-    <t>Extra measures defined for a Medicinal Product, such as a requirement to conduct post-authorisation studies.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-special-measures</t>
+    <t>Whether the Medicinal Product is subject to special measures for regulatory reasons.</t>
   </si>
   <si>
     <t>Medicinal Product.Special Measures</t>
@@ -906,13 +894,7 @@
     <t>Authorised pediatric use</t>
   </si>
   <si>
-    <t>If authorised for use in children, or infants, neonates etc.</t>
-  </si>
-  <si>
-    <t>Suitability for age groups, in particular children.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-pediatric-use</t>
+    <t>If authorised for use in children.</t>
   </si>
   <si>
     <t>Medicinal Product.Pediatric Use Indicator</t>
@@ -924,13 +906,7 @@
     <t>Classifications used for this product</t>
   </si>
   <si>
-    <t>Allows the product to be classified by various systems, commonly WHO ATC.</t>
-  </si>
-  <si>
-    <t>This value set includes codes from the Anatomical Therapeutic Chemical Classification System - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/product-classification-codes</t>
+    <t>Allows the product to be classified by various systems.</t>
   </si>
   <si>
     <t>Product Classification.Value</t>
@@ -946,7 +922,7 @@
     <t>Marketing status of the medicinal product in contrast to marketing authorization</t>
   </si>
   <si>
-    <t>Marketing status of the medicinal product, in contrast to marketing authorization. This refers to the product being actually 'on the market' as opposed to being allowed to be on the market (which is an authorization).</t>
+    <t>Marketing status of the medicinal product, in contrast to marketing authorization.</t>
   </si>
   <si>
     <t>Marketing Status</t>
@@ -958,7 +934,7 @@
     <t>Package type for this product</t>
   </si>
   <si>
-    <t>Package type for the product. See also the PackagedProductDefinition resource.</t>
+    <t>Package representation for the product. See also the PackagedProductDefinition resource.</t>
   </si>
   <si>
     <t>Types of medicinal product packs</t>
@@ -973,16 +949,10 @@
     <t>MedicinalProductDefinition.ingredient</t>
   </si>
   <si>
-    <t>The ingredients of this medicinal product - when not detailed in other resources</t>
+    <t>The ingredients of this medicinal product - when not detailed in other resources. This is only needed if the ingredients are not specified by incoming references from the Ingredient resource, or indirectly via incoming AdministrableProductDefinition, PackagedProductDefinition or ManufacturedItemDefinition references. In cases where those levels of detail are not used, the ingredients may be specified directly here as codes</t>
   </si>
   <si>
     <t>The ingredients of this medicinal product - when not detailed in other resources. This is only needed if the ingredients are not specified by incoming references from the Ingredient resource, or indirectly via incoming AdministrableProductDefinition, PackagedProductDefinition or ManufacturedItemDefinition references. In cases where those levels of detail are not used, the ingredients may be specified directly here as codes.</t>
-  </si>
-  <si>
-    <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
   </si>
   <si>
     <t>Medicinal Product.Ingredient (see also FHIR Ingredient resource)</t>
@@ -995,10 +965,10 @@
 </t>
   </si>
   <si>
-    <t>Any component of the drug product which is not the chemical entity defined as the drug substance, or an excipient in the drug product</t>
-  </si>
-  <si>
-    <t>Any component of the drug product which is not the chemical entity defined as the drug substance, or an excipient in the drug product. This includes process-related impurities and contaminants, product-related impurities including degradation products.</t>
+    <t>Any component of the drug product which is not the chemical entity defined as the drug substance or an excipient in the drug product. This includes process-related impurities and contaminants, product-related impurities including degradation products</t>
+  </si>
+  <si>
+    <t>Any component of the drug product which is not the chemical entity defined as the drug substance or an excipient in the drug product. This includes process-related impurities and contaminants, product-related impurities including degradation products.</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.attachedDocument</t>
@@ -1008,7 +978,7 @@
 </t>
   </si>
   <si>
-    <t>Additional documentation about the medicinal product</t>
+    <t>Additional information or supporting documentation about the medicinal product</t>
   </si>
   <si>
     <t>Additional information or supporting documentation about the medicinal product.</t>
@@ -1074,12 +1044,6 @@
     <t>Allows the contact to be classified, for example QPPV, Pharmacovigilance Enquiry Information.</t>
   </si>
   <si>
-    <t>Extra measures defined for a Medicinal Product, such as heightened reporting requirements.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-contact-type</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.contact.contact</t>
   </si>
   <si>
@@ -1109,7 +1073,7 @@
     <t>A code that this product is known by, within some formal terminology</t>
   </si>
   <si>
-    <t>A code that this product is known by, usually within some formal terminology, perhaps assigned by a third party (i.e. not the manufacturer or regulator). Products (types of medications) tend to be known by identifiers during development and within regulatory process. However when they are prescribed they tend to be identified by codes. The same product may be have multiple codes, applied to it by multiple organizations.</t>
+    <t>A code that this product is known by, usually within some formal terminology. Products (types of medications) tend to be known by identifiers during development and within regulatory process. However when they are prescribed they tend to be identified by codes. The same product may be have multiple codes, applied to it by multiple organizations.</t>
   </si>
   <si>
     <t>A coded concept that defines the type of a medication.</t>
@@ -1172,12 +1136,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Type of a name for a Medicinal Product.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-name-type</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.name.namePart</t>
   </si>
   <si>
@@ -1232,22 +1190,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Type of part of a name for a Medicinal Product.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-name-part-type</t>
-  </si>
-  <si>
     <t>(which of the name parts this is e.g. Formulation Part)</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.countryLanguage</t>
   </si>
   <si>
-    <t>Country and jurisdiction where the name applies</t>
-  </si>
-  <si>
-    <t>Country and jurisdiction where the name applies, and associated language.</t>
+    <t>Country where the name applies</t>
+  </si>
+  <si>
+    <t>Country where the name applies.</t>
   </si>
   <si>
     <t>Country / Language</t>
@@ -1271,12 +1223,6 @@
     <t>Country code for where this name applies.</t>
   </si>
   <si>
-    <t>Jurisdiction codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/country</t>
-  </si>
-  <si>
     <t>Country / Language.Country</t>
   </si>
   <si>
@@ -1286,10 +1232,7 @@
     <t>Jurisdiction code for where this name applies</t>
   </si>
   <si>
-    <t>Jurisdiction code for where this name applies. A jurisdiction may be a sub- or supra-national entity (e.g. a state or a geographic region).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+    <t>Jurisdiction code for where this name applies.</t>
   </si>
   <si>
     <t>Country / Language.Jurisdiction</t>
@@ -1313,7 +1256,7 @@
     <t>Reference to another product, e.g. for linking authorised to investigational product</t>
   </si>
   <si>
-    <t>Reference to another product, e.g. for linking authorised to investigational product, or a virtual product.</t>
+    <t>Reference to another product, e.g. for linking authorised to investigational product.</t>
   </si>
   <si>
     <t>Product Cross-Reference</t>
@@ -1335,25 +1278,19 @@
 </t>
   </si>
   <si>
-    <t>Reference to another product, e.g. for linking authorised to investigational product.</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.crossReference.type</t>
   </si>
   <si>
-    <t>The type of relationship, for instance branded to generic or virtual to actual product</t>
-  </si>
-  <si>
-    <t>The type of relationship, for instance branded to generic, virtual to actual product, product to development product (investigational), parallel import version.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-cross-reference-type</t>
+    <t>The type of relationship, for instance branded to generic, product to development product (investigational), parallel import version</t>
+  </si>
+  <si>
+    <t>The type of relationship, for instance branded to generic, product to development product (investigational), parallel import version.</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.operation</t>
   </si>
   <si>
-    <t>A manufacturing or administrative process for the medicinal product</t>
+    <t>A manufacturing or administrative process or step associated with (or performed on) the medicinal product</t>
   </si>
   <si>
     <t>A manufacturing or administrative process or step associated with (or performed on) the medicinal product.</t>
@@ -1378,7 +1315,7 @@
 </t>
   </si>
   <si>
-    <t>The type of manufacturing operation e.g. manufacturing itself, re-packaging</t>
+    <t>The type of manufacturing operation e.g. manufacturing itself, re-packaging. For the authorization of this, a RegulatedAuthorization would point to the same plan or activity referenced here</t>
   </si>
   <si>
     <t>The type of manufacturing operation e.g. manufacturing itself, re-packaging. For the authorization of this, a RegulatedAuthorization would point to the same plan or activity referenced here.</t>
@@ -1402,7 +1339,7 @@
     <t>MedicinalProductDefinition.operation.organization</t>
   </si>
   <si>
-    <t>The organization responsible for the particular process, e.g. the manufacturer or importer</t>
+    <t>The organization or establishment responsible for (or associated with) the particular process or step, examples include the manufacturer, importer, agent</t>
   </si>
   <si>
     <t>The organization or establishment responsible for (or associated with) the particular process or step, examples include the manufacturer, importer, agent.</t>
@@ -1414,25 +1351,19 @@
     <t>MedicinalProductDefinition.operation.confidentialityIndicator</t>
   </si>
   <si>
-    <t>Specifies whether this process is considered proprietary or confidential</t>
+    <t>Specifies whether this particular business or manufacturing process is considered proprietary or confidential</t>
   </si>
   <si>
     <t>Specifies whether this particular business or manufacturing process is considered proprietary or confidential.</t>
   </si>
   <si>
-    <t>Confidentiality rating, e.g. commercial sensitivity for a Medicinal Product.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicinal-product-confidentiality</t>
-  </si>
-  <si>
     <t>Manufacturing / Business Operation.Confidentiality Indicator</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.characteristic</t>
   </si>
   <si>
-    <t>Key product features such as "sugar free", "modified release"</t>
+    <t>Allows the key product features to be recorded, such as "sugar free", "modified release", "parallel import"</t>
   </si>
   <si>
     <t>Allows the key product features to be recorded, such as "sugar free", "modified release", "parallel import".</t>
@@ -1457,12 +1388,6 @@
   </si>
   <si>
     <t>A code expressing the type of characteristic.</t>
-  </si>
-  <si>
-    <t>This value set includes all observable entity codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
   </si>
   <si>
     <t>Physical Characteristics, all attributes</t>
@@ -1795,7 +1720,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="125.578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1808,7 +1733,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="122.328125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="110.578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.78515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -5857,13 +5782,13 @@
         <v>71</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>276</v>
+        <v>71</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>71</v>
@@ -5896,7 +5821,7 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -5907,7 +5832,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5933,10 +5858,10 @@
         <v>166</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5963,13 +5888,13 @@
         <v>71</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>71</v>
@@ -5987,7 +5912,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -6002,7 +5927,7 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>71</v>
@@ -6013,7 +5938,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6039,10 +5964,10 @@
         <v>166</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6069,13 +5994,13 @@
         <v>71</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>71</v>
@@ -6093,7 +6018,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -6108,7 +6033,7 @@
         <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>71</v>
@@ -6119,7 +6044,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6145,10 +6070,10 @@
         <v>166</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6175,13 +6100,13 @@
         <v>71</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>294</v>
+        <v>71</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>71</v>
@@ -6199,7 +6124,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -6214,7 +6139,7 @@
         <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>71</v>
@@ -6225,7 +6150,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6248,13 +6173,13 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6305,7 +6230,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -6320,7 +6245,7 @@
         <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>71</v>
@@ -6331,7 +6256,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6357,10 +6282,10 @@
         <v>166</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6390,10 +6315,10 @@
         <v>248</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>71</v>
@@ -6411,7 +6336,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -6426,7 +6351,7 @@
         <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>71</v>
@@ -6437,7 +6362,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6463,10 +6388,10 @@
         <v>166</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6493,13 +6418,13 @@
         <v>71</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>311</v>
+        <v>71</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>71</v>
@@ -6517,7 +6442,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6532,7 +6457,7 @@
         <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>71</v>
@@ -6543,7 +6468,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6566,13 +6491,13 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6599,13 +6524,13 @@
         <v>71</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>311</v>
+        <v>71</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>71</v>
@@ -6623,7 +6548,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6649,7 +6574,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6672,13 +6597,13 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6729,7 +6654,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6744,7 +6669,7 @@
         <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>71</v>
@@ -6755,7 +6680,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6778,13 +6703,13 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6835,7 +6760,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6850,7 +6775,7 @@
         <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>71</v>
@@ -6861,7 +6786,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6884,13 +6809,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6941,7 +6866,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6967,7 +6892,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7073,7 +6998,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7181,11 +7106,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7207,10 +7132,10 @@
         <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>130</v>
@@ -7265,7 +7190,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -7291,7 +7216,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7317,10 +7242,10 @@
         <v>166</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7347,13 +7272,13 @@
         <v>71</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>341</v>
+        <v>71</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>342</v>
+        <v>71</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>71</v>
@@ -7371,7 +7296,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -7397,7 +7322,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7420,13 +7345,13 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7477,7 +7402,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>81</v>
@@ -7503,7 +7428,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7526,13 +7451,13 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7583,7 +7508,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7598,7 +7523,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>71</v>
@@ -7609,7 +7534,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7635,10 +7560,10 @@
         <v>215</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7668,10 +7593,10 @@
         <v>248</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>71</v>
@@ -7689,7 +7614,7 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7715,7 +7640,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7738,13 +7663,13 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7795,7 +7720,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>81</v>
@@ -7810,7 +7735,7 @@
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>71</v>
@@ -7821,7 +7746,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7927,7 +7852,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8035,11 +7960,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8061,10 +7986,10 @@
         <v>127</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>130</v>
@@ -8119,7 +8044,7 @@
         <v>71</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>72</v>
@@ -8145,7 +8070,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8171,10 +8096,10 @@
         <v>145</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8189,7 +8114,7 @@
         <v>71</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>71</v>
@@ -8225,7 +8150,7 @@
         <v>71</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>81</v>
@@ -8240,7 +8165,7 @@
         <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>71</v>
@@ -8251,7 +8176,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8277,10 +8202,10 @@
         <v>166</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8295,7 +8220,7 @@
         <v>71</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>71</v>
@@ -8307,13 +8232,13 @@
         <v>71</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>371</v>
+        <v>71</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>372</v>
+        <v>71</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>71</v>
@@ -8331,7 +8256,7 @@
         <v>71</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>72</v>
@@ -8357,7 +8282,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8380,13 +8305,13 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8437,7 +8362,7 @@
         <v>71</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>72</v>
@@ -8452,7 +8377,7 @@
         <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>71</v>
@@ -8463,7 +8388,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8569,7 +8494,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8677,11 +8602,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8703,10 +8628,10 @@
         <v>127</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>130</v>
@@ -8761,7 +8686,7 @@
         <v>71</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>72</v>
@@ -8787,7 +8712,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8813,10 +8738,10 @@
         <v>145</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8831,7 +8756,7 @@
         <v>71</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>71</v>
@@ -8867,7 +8792,7 @@
         <v>71</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>81</v>
@@ -8882,7 +8807,7 @@
         <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>71</v>
@@ -8893,7 +8818,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8919,10 +8844,10 @@
         <v>166</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8937,7 +8862,7 @@
         <v>71</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>71</v>
@@ -8949,13 +8874,13 @@
         <v>71</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>389</v>
+        <v>71</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>390</v>
+        <v>71</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>71</v>
@@ -8973,7 +8898,7 @@
         <v>71</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>81</v>
@@ -8988,7 +8913,7 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>71</v>
@@ -8999,7 +8924,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9022,13 +8947,13 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9079,7 +9004,7 @@
         <v>71</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>72</v>
@@ -9094,7 +9019,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>71</v>
@@ -9105,7 +9030,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9211,7 +9136,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9319,11 +9244,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9345,10 +9270,10 @@
         <v>127</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>130</v>
@@ -9403,7 +9328,7 @@
         <v>71</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>72</v>
@@ -9429,7 +9354,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9455,10 +9380,10 @@
         <v>166</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9485,13 +9410,13 @@
         <v>71</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>402</v>
+        <v>71</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>403</v>
+        <v>71</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>71</v>
@@ -9509,7 +9434,7 @@
         <v>71</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>81</v>
@@ -9524,7 +9449,7 @@
         <v>93</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>71</v>
@@ -9535,7 +9460,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9561,10 +9486,10 @@
         <v>166</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9591,13 +9516,13 @@
         <v>71</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>402</v>
+        <v>71</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>408</v>
+        <v>71</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>71</v>
@@ -9615,7 +9540,7 @@
         <v>71</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>72</v>
@@ -9630,7 +9555,7 @@
         <v>93</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>71</v>
@@ -9641,7 +9566,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9667,10 +9592,10 @@
         <v>166</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9697,13 +9622,13 @@
         <v>71</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>71</v>
@@ -9721,7 +9646,7 @@
         <v>71</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>81</v>
@@ -9736,7 +9661,7 @@
         <v>93</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>71</v>
@@ -9747,7 +9672,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9770,13 +9695,13 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9827,7 +9752,7 @@
         <v>71</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>72</v>
@@ -9842,7 +9767,7 @@
         <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>71</v>
@@ -9853,7 +9778,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9959,7 +9884,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10067,11 +9992,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10093,10 +10018,10 @@
         <v>127</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>130</v>
@@ -10151,7 +10076,7 @@
         <v>71</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>72</v>
@@ -10177,7 +10102,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10200,13 +10125,13 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10257,7 +10182,7 @@
         <v>71</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>81</v>
@@ -10272,7 +10197,7 @@
         <v>93</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>71</v>
@@ -10283,7 +10208,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10309,10 +10234,10 @@
         <v>166</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10339,13 +10264,13 @@
         <v>71</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>341</v>
+        <v>71</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>427</v>
+        <v>71</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>71</v>
@@ -10363,7 +10288,7 @@
         <v>71</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>72</v>
@@ -10378,7 +10303,7 @@
         <v>93</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>71</v>
@@ -10389,7 +10314,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10412,13 +10337,13 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10469,7 +10394,7 @@
         <v>71</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>72</v>
@@ -10484,7 +10409,7 @@
         <v>93</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>71</v>
@@ -10495,7 +10420,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10601,7 +10526,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10709,11 +10634,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10735,10 +10660,10 @@
         <v>127</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>130</v>
@@ -10793,7 +10718,7 @@
         <v>71</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>72</v>
@@ -10819,7 +10744,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10842,13 +10767,13 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10899,7 +10824,7 @@
         <v>71</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>72</v>
@@ -10914,7 +10839,7 @@
         <v>93</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>71</v>
@@ -10925,7 +10850,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10951,10 +10876,10 @@
         <v>191</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11005,7 +10930,7 @@
         <v>71</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>72</v>
@@ -11020,7 +10945,7 @@
         <v>93</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>71</v>
@@ -11031,7 +10956,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11057,10 +10982,10 @@
         <v>197</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11111,7 +11036,7 @@
         <v>71</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>72</v>
@@ -11126,7 +11051,7 @@
         <v>93</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>71</v>
@@ -11137,7 +11062,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11163,10 +11088,10 @@
         <v>166</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11193,13 +11118,13 @@
         <v>71</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>451</v>
+        <v>71</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>452</v>
+        <v>71</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>71</v>
@@ -11217,7 +11142,7 @@
         <v>71</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>72</v>
@@ -11232,7 +11157,7 @@
         <v>93</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>71</v>
@@ -11243,7 +11168,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11266,13 +11191,13 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11323,7 +11248,7 @@
         <v>71</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>72</v>
@@ -11338,7 +11263,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>71</v>
@@ -11349,7 +11274,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11455,7 +11380,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11563,11 +11488,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11589,10 +11514,10 @@
         <v>127</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>130</v>
@@ -11647,7 +11572,7 @@
         <v>71</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>72</v>
@@ -11673,7 +11598,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11699,10 +11624,10 @@
         <v>166</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11729,13 +11654,13 @@
         <v>71</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>464</v>
+        <v>71</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>465</v>
+        <v>71</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>71</v>
@@ -11753,7 +11678,7 @@
         <v>71</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>81</v>
@@ -11768,7 +11693,7 @@
         <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>71</v>
@@ -11779,7 +11704,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11802,13 +11727,13 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11859,7 +11784,7 @@
         <v>71</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>72</v>
@@ -11874,7 +11799,7 @@
         <v>93</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1711,39 +1711,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="65.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="110.578125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="110.58203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.78515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="58.828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="103.703125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/MedicinalProductDefinition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -574,7 +574,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/medProductIdSystems</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/ValueSet/medProductIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -1734,7 +1734,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="110.58203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.78515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
